--- a/src/test/resources/testdata/testdata.xlsx
+++ b/src/test/resources/testdata/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="794" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="794" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="75">
   <si>
     <t>username</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>Srijida Nazif</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -748,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -939,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -980,7 +983,7 @@
         <v>123456</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>

--- a/src/test/resources/testdata/testdata.xlsx
+++ b/src/test/resources/testdata/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="794" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="794" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="FileUpload" sheetId="8" r:id="rId8"/>
     <sheet name="Logout" sheetId="9" r:id="rId9"/>
     <sheet name="Staff" sheetId="10" r:id="rId10"/>
+    <sheet name="GoalTrackDetails" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="86">
   <si>
     <t>username</t>
   </si>
@@ -175,9 +176,6 @@
     <t>month</t>
   </si>
   <si>
-    <t>Dec</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -248,6 +246,42 @@
   </si>
   <si>
     <t>Testing</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>goaltype</t>
+  </si>
+  <si>
+    <t>targetacheivement</t>
+  </si>
+  <si>
+    <t>startday</t>
+  </si>
+  <si>
+    <t>startmonth</t>
+  </si>
+  <si>
+    <t>startyear</t>
+  </si>
+  <si>
+    <t>endday</t>
+  </si>
+  <si>
+    <t>endmonth</t>
+  </si>
+  <si>
+    <t>endyear</t>
+  </si>
+  <si>
+    <t>Event Goal</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>event complete</t>
   </si>
 </sst>
 </file>
@@ -715,13 +749,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>69</v>
-      </c>
-      <c r="E1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -732,13 +766,113 @@
         <v>123456</v>
       </c>
       <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D2" s="4" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2">
+        <v>2024</v>
+      </c>
+      <c r="J2">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2">
+        <v>2024</v>
       </c>
     </row>
   </sheetData>
@@ -751,7 +885,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -798,7 +934,7 @@
         <v>49</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>13</v>
@@ -825,13 +961,13 @@
         <v>23</v>
       </c>
       <c r="Q1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>24</v>
@@ -863,7 +999,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="3">
         <v>123465</v>
@@ -872,7 +1008,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H2" s="3">
         <v>2020</v>
@@ -890,13 +1026,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>4</v>
@@ -905,7 +1041,7 @@
         <v>26</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="S2" s="3">
         <v>2000</v>
@@ -914,10 +1050,10 @@
         <v>111222</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>30</v>
@@ -942,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -983,7 +1119,7 @@
         <v>123456</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -1005,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1046,7 +1182,7 @@
         <v>49</v>
       </c>
       <c r="K1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L1" t="s">
         <v>36</v>
@@ -1058,13 +1194,13 @@
         <v>38</v>
       </c>
       <c r="O1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" t="s">
         <v>52</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>53</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1093,13 +1229,13 @@
         <v>11</v>
       </c>
       <c r="I2" s="4">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="K2" s="4">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="L2" t="s">
         <v>43</v>
@@ -1111,13 +1247,13 @@
         <v>45</v>
       </c>
       <c r="O2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="Q2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
   </sheetData>
@@ -1131,7 +1267,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1153,7 +1289,7 @@
         <v>49</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1164,10 +1300,10 @@
         <v>123456</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="E2">
         <v>2023</v>
@@ -1202,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1213,7 +1349,7 @@
         <v>123456</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1243,13 +1379,13 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
         <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1263,13 +1399,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
         <v>64</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1299,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1310,7 +1446,7 @@
         <v>123456</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
